--- a/results/pvalue_OFFSIDES_rare_enzyme_AUROCperdrug.xlsx
+++ b/results/pvalue_OFFSIDES_rare_enzyme_AUROCperdrug.xlsx
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.219</t>
+          <t>15.686</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>7.894</t>
+          <t>16.562</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.307</t>
+          <t>13.181</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.044</t>
+          <t>29.079</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>12.807</t>
+          <t>12.144</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
